--- a/biology/Botanique/Mammillaria_microhelia/Mammillaria_microhelia.xlsx
+++ b/biology/Botanique/Mammillaria_microhelia/Mammillaria_microhelia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mammillaria microhelia est une espèce de cactus faisant partie du genre Mammillaria de la famille des Cactaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Du latin mamilla, mamelle, et du grec mikros, petit, et helios, soleil.
 </t>
@@ -542,7 +556,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">M. microhelia est de culture relativement facile, avec un maximum de soleil et un repos hivernal bien marqué, comme tous les Mammillariae.
 La température minimale est de 0 °C.
@@ -574,7 +590,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce fleurit généralement du printemps à l'été mais pluôt au début du printemps, voire en fin d'hiver parfois, et est auto-stérile, c'est-à-dire qu'un seul individu ne suffit pas pour la formation de graines.
 </t>
@@ -605,7 +623,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle vit au Mexique, dans la région de Querétaro, entre 2 000 et 2 600m d'altitude le plus souvent.
 </t>
